--- a/Shang Chi.xlsx
+++ b/Shang Chi.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Nova pasta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1BF87-FC8E-4F39-AFC0-1B2AB4922D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1627,12 +1633,15 @@
   <si>
     <t>será que tem camrip minimamente decente de shang chi ou vou ter que esperar sair torrent de bluray/disney plus</t>
   </si>
+  <si>
+    <t>Relevancia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,16 +1712,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1754,7 +1771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1786,9 +1803,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1820,6 +1855,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1995,1516 +2048,2421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3513,1021 +4471,1626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>501</v>
       </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Shang Chi.xlsx
+++ b/Shang Chi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Pojeto1_c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1BF87-FC8E-4F39-AFC0-1B2AB4922D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9ED8F-9E92-4FC7-9D05-622B10F86E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1641,7 +1641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,6 +1663,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1704,12 +1712,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2051,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,7 +2183,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2303,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2335,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2399,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2415,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2471,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2495,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2551,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2623,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2647,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2695,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2703,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2791,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2855,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +2863,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2911,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3038,7 +3047,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3071,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3110,7 +3119,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3150,7 +3159,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3166,7 +3175,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3191,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3207,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3302,7 +3311,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3327,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3335,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3375,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3423,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3455,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3470,7 +3479,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3526,7 +3535,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +3679,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +3695,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3719,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +3831,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3862,7 +3871,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3910,7 +3919,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4015,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4014,7 +4023,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4150,7 +4159,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4198,7 +4207,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4326,7 +4335,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4414,7 +4423,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,7 +4439,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,10 +4481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,7 +4518,7 @@
         <v>304</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +4606,7 @@
         <v>315</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4645,7 +4654,7 @@
         <v>321</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4685,7 +4694,7 @@
         <v>326</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4701,7 +4710,7 @@
         <v>328</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4734,7 @@
         <v>331</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4789,7 +4798,7 @@
         <v>339</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +4806,7 @@
         <v>340</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4846,7 @@
         <v>345</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +4910,7 @@
         <v>353</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4941,7 +4950,7 @@
         <v>358</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +4958,7 @@
         <v>359</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5061,7 +5070,7 @@
         <v>373</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,7 +5094,7 @@
         <v>376</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +5102,7 @@
         <v>377</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +5110,7 @@
         <v>378</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +5118,7 @@
         <v>379</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,7 +5126,7 @@
         <v>380</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5134,7 @@
         <v>381</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +5206,7 @@
         <v>390</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5205,7 +5214,7 @@
         <v>391</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +5318,7 @@
         <v>404</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5334,7 @@
         <v>406</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5405,7 +5414,7 @@
         <v>416</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -5445,7 +5454,7 @@
         <v>421</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -5605,7 +5614,7 @@
         <v>441</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +5638,7 @@
         <v>444</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -5709,7 +5718,7 @@
         <v>454</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +5726,7 @@
         <v>455</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -5725,7 +5734,7 @@
         <v>456</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,7 +5902,7 @@
         <v>477</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -5901,7 +5910,7 @@
         <v>478</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,7 +5926,7 @@
         <v>480</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -6005,7 +6014,7 @@
         <v>491</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -6029,7 +6038,7 @@
         <v>494</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -6045,7 +6054,7 @@
         <v>496</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -6061,7 +6070,7 @@
         <v>498</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -6087,11 +6096,15 @@
       <c r="B201">
         <v>0</v>
       </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A27" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Shang Chi.xlsx
+++ b/Shang Chi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Pojeto1_c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9ED8F-9E92-4FC7-9D05-622B10F86E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD4ABB-69B4-4E24-B9EA-98800D6F1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8220" yWindow="4290" windowWidth="15375" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="749">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1635,6 +1635,818 @@
   </si>
   <si>
     <t>Relevancia</t>
+  </si>
+  <si>
+    <t>doido pra ir no cinema ver shang chi mas não tem ngm pra ir cmg</t>
+  </si>
+  <si>
+    <t>@jeffaoshow qq esse ffh tá fznd ai wtf tipo shang chi eu até entendo acabou de lançar n tem mts ratings da audiência e eu acho um ótimo filme pro público em geral mas... far from home é simplesmente ruim ou até mediano no melhor dos casos de tds as formas e pontos de vista diferentes kkkkkkk</t>
+  </si>
+  <si>
+    <t>shang chi mto bom me apaixonei pelo pai dele no filme que homem pqp</t>
+  </si>
+  <si>
+    <t>@wallowsab eu mudo mt e não tenho um top certo então vou dizer 3 do momento
+a cinco passos de você, shang chi e ffh</t>
+  </si>
+  <si>
+    <t>@cordeliia_anne vish kkkkk 
+casa comigo? 
+shang chi 
+deus não está morto</t>
+  </si>
+  <si>
+    <t>vontade de assistir shang chi dnv ;(</t>
+  </si>
+  <si>
+    <t>ontem vi shang chi e a lenda dos 10 anéis e eu amei, foi um filme incrível e agora quero ver mais filmes do marvel (eu só vi guardiões da galáxia 🥲)</t>
+  </si>
+  <si>
+    <t>fui assistir shang chi (o novo herói), muito fantasioso tá difícil ser puta da marvel</t>
+  </si>
+  <si>
+    <t>cadê o drive de shang chi
+pirataria já foi mais rápida vius</t>
+  </si>
+  <si>
+    <t>links
+✨ gamer chorando pq tem mulher em fm: https://t.co/8a4ho6bcq2
+✨ mu revelation é melhor do que he-maaan🎶: https://t.co/qem3s43jfx
+✨ shang-chi não flopou e o nerdola chorou: https://t.co/mo5pxqnxnm
+✨ quem mulan da disney representa: https://t.co/cy69o0vuap</t>
+  </si>
+  <si>
+    <t>sdd do shang chi voando e eu sentindo a adrelina junto, eternos lance logoo pfvr</t>
+  </si>
+  <si>
+    <t>@trickbookstan [crítica] shang-chi: o verdadeiro início da fase 4 nos cinemas
+==&amp;gt;&amp;gt;https://t.co/wwyhcrxtpv
+shang-chi é mais um ótimo filme da marvel que mistura boas cenas de ação, personagens cativantes e um bom vilão..." 
+https://t.co/dqwucbbjo2</t>
+  </si>
+  <si>
+    <t>eu quero assistir shang chi mais não tem ninguém pra ir comigo</t>
+  </si>
+  <si>
+    <t>dividida entre gastar todo meu dinheiro com comida ou assistir shang chi no cinema</t>
+  </si>
+  <si>
+    <t>se tudo der bom e ainda tiver horários bons quarta feira consigo assistir shang chi</t>
+  </si>
+  <si>
+    <t>queria ver shang chi mas não pago 40 reais na entrada nem fodendo...
+e que ódio da moviecom daqui porque os ingressos lá são bem em conta mas não disponibilizam o filme legendado...</t>
+  </si>
+  <si>
+    <t>shang chi duas vezes seguidas fds</t>
+  </si>
+  <si>
+    <t>se eu pudesse ia no cinema ver 4 sessões seguidas:
+shang chi, old, candyman e maligno</t>
+  </si>
+  <si>
+    <t>muito, muito, muito amor pro simu liu, awkwafina e meng' er zhang (que faz a irmã do shang chi, maravilhosissima &amp;lt;3)</t>
+  </si>
+  <si>
+    <t>shang chi é melhor filme solo da marvel.</t>
+  </si>
+  <si>
+    <t>escutem shang chi o album, assistam o filme e bebam água boa noite</t>
+  </si>
+  <si>
+    <t>mano que filme top do shang chi me surpreendeu muitoooo</t>
+  </si>
+  <si>
+    <t>a gente pegou ele na maquininha quando foi assistir shang chi 😁</t>
+  </si>
+  <si>
+    <t>considerando ver shang chi no cinema já que até agora não vi pra baixar</t>
+  </si>
+  <si>
+    <t>parem de falar q tão indo ver shang chi e demais pra mim</t>
+  </si>
+  <si>
+    <t>dormir sem o abraço dele….(shang chi)</t>
+  </si>
+  <si>
+    <t>shang chi é tão bom jesus que filme incrível, foda, lindo</t>
+  </si>
+  <si>
+    <t>@m4rkhoz_2 xa me pareceu. entramos ó shang chi ás 19.15 e non dabas a basto na palomiteria.</t>
+  </si>
+  <si>
+    <t>shang-chi pôsteres de trevor e morris https://t.co/idrrtkaja0 https://t.co/ywldhjecen</t>
+  </si>
+  <si>
+    <t>aff cadê shang chi full hd no youtube</t>
+  </si>
+  <si>
+    <t>shang chi, que filme amigos, mucho bueno, obg marvel</t>
+  </si>
+  <si>
+    <t>acabei de receber um spoiler grande de shang chi 😕</t>
+  </si>
+  <si>
+    <t>to mal queria ver shang chi no cinema mas esse mes n posso sera q fica passando ate mes q vem</t>
+  </si>
+  <si>
+    <t>cine votuporanga anuncia shang chi em cartaz pelo amor de deus nunca te pedi nada</t>
+  </si>
+  <si>
+    <t>quero ver shang chi de novooo</t>
+  </si>
+  <si>
+    <t>vou virar uma idosa rabugenta amargurada pq não fui assistir shang chi no cinema. qnd eu tiver 70 anos e meus filhos falarem algo cmg vou soltar "fodase eu não fui ver shang chi no cinema. vai falar com teu pai"</t>
+  </si>
+  <si>
+    <t>alguém me leva pra assistir shang chi de novo</t>
+  </si>
+  <si>
+    <t>vou ver shang chi no cinema semana que vem</t>
+  </si>
+  <si>
+    <t>já fazem três dias e eu não supero a soundtrack maravilhosa de shang chi. minha alma pertence à 88rising, sem mais.</t>
+  </si>
+  <si>
+    <t>shang chi
+mais um filme de origem de herói, com algumas reviravoltas e aparições surpreendentes. o destaque do filme são as coreografias de luta, maravilhosas de se assistir, junto do retrato da cultura chinesa, apresentada com muita fidelidade, tanto nos diálogos quanto no</t>
+  </si>
+  <si>
+    <t>derivado cast no ar com o melhor e o pior de shang chi, la casa de papel e os episódios finais de rick and morty. e um merdalhão inusitado.
+https://t.co/vs08vm9euz https://t.co/kbyrqnusp9</t>
+  </si>
+  <si>
+    <t>vou assistir shang chi de novo 🥰</t>
+  </si>
+  <si>
+    <t>@ghostjacobs ja estamos!! alias portugal ta com 85% da populaçao vacinada! fui ver shang chi na estreia sem bronca nenhuma</t>
+  </si>
+  <si>
+    <t>meu teste de apresentação é divulgando shang chi a sorte da gataaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>meu deus levei um spoiller enorme de shang chi agr nossa vai se foder mt q odio</t>
+  </si>
+  <si>
+    <t>‘shang-chi e a lenda dos dez anéis’ é o filme mais visto da semana e a segunda melhor estreia do ano - https://t.co/hoxntobjec https://t.co/8o5o1o1xsy</t>
+  </si>
+  <si>
+    <t>shang chi tá muito muito bom</t>
+  </si>
+  <si>
+    <t>a trilha sonora de shang chi é impecável manos</t>
+  </si>
+  <si>
+    <t>queria voltar na quinta passada pra ver shang chi de novo</t>
+  </si>
+  <si>
+    <t>shang chi  é mil vezes melhor do que guerra infinita e só a minha opinião importa</t>
+  </si>
+  <si>
+    <t>@caroljovanelli foi ver shang chi amiga?</t>
+  </si>
+  <si>
+    <t>que vontade de ver shang chi em looping infinito</t>
+  </si>
+  <si>
+    <t>ainda não assistir shang chi mas o simu liu é um amorzinho</t>
+  </si>
+  <si>
+    <t>queria estar assistindo shang chi com as esfihas do habibs que eu gosto</t>
+  </si>
+  <si>
+    <t>animado e decepcionado com o pós crédito de shang chi, marvel se explique agora!!!</t>
+  </si>
+  <si>
+    <t>@marcvhess2 @batatinhageek shang chi é perfeito sim, n é atoa que praticamente 98% das pessoas fala bem do filme, se vc n gostou aí vai do seu gosto, liga da justiça n era pra tá na lista, se for pra reclamar de homem aranha reclama dessa bomba tb</t>
+  </si>
+  <si>
+    <t>vejam shang chi https://t.co/lyra4nuzoq</t>
+  </si>
+  <si>
+    <t>acho que vou no cinema ver shang chi, se eu pegar a sessão agr de 13h vai tá bem vazio em nome de jesus e eu vou conseguir ver o filme na paz</t>
+  </si>
+  <si>
+    <t>shang-chi e a lenda dos dez anéis | simu liu e awkwafina comentam sobre cenas pós créditos https://t.co/uyxpeqrdic https://t.co/oxqadsio4p</t>
+  </si>
+  <si>
+    <t>caralho ngm  quer vê maligno nn poha, bota shang chi em exibição cinema de bosta</t>
+  </si>
+  <si>
+    <t>como que bloqueia palavra nao aguento mais tomar spoiler de shang chi https://t.co/mwin9btgam</t>
+  </si>
+  <si>
+    <t>agr deu vontade de assistir shang chi direito........</t>
+  </si>
+  <si>
+    <t>@marvelbr @disneystudiosbr pq a orient cinemas de juazeiro do norte ñ está exibindo shang chi?</t>
+  </si>
+  <si>
+    <t>não vi shang chi e tomei spoiler da cena pós créditos🤡🤡🤡 carai eu só vou ver sábado calma não solta ainda</t>
+  </si>
+  <si>
+    <t>muito bom shang chi, recomendo pra carai</t>
+  </si>
+  <si>
+    <t>shang chi – suas cenas pós créditos com spoiler! || coluna. https://t.co/fvybrbiqlz</t>
+  </si>
+  <si>
+    <t>nada mais importa pois simu e brie / shang chi e carol conta de bff é real no meu coração https://t.co/ulrpcnttee</t>
+  </si>
+  <si>
+    <t>com bom resultado de “shang-chi” na bilheteria, sony antecipa estreia de “venom 2” nos eua https://t.co/jxwhtczllq https://t.co/yncmar7vho</t>
+  </si>
+  <si>
+    <t>@manudiassilvas @batatinhageek credo, eu terminei de assistir essa semana exatamente pq falaram que era melhor que shang chi, o filme é uma bomba, a mulher maravilha atua mt mal e os efeitos dela são mt ruins (comparados aos dos superman), o flash foi uma piada, o batman n serviu d nd</t>
+  </si>
+  <si>
+    <t>só queria uma companhia pra ir assistir shang chi, af</t>
+  </si>
+  <si>
+    <t>@ricardorente o caso shang chi é muito mais gratuito que esses 2 casos, você só sente que o klaw estava ali sem propósito por já saber que ele estaria num futuro filme do pantera, porque o ultron ir atrás de vibranuin faz total sentido</t>
+  </si>
+  <si>
+    <t>@chast4in meus favs eh shang chi, guardiões da galáxia, ragnarok e bp</t>
+  </si>
+  <si>
+    <t>@lillyreis1914 @greengodict assisti shang chi ontem. amei. melhor que as minhas expectativas.</t>
+  </si>
+  <si>
+    <t>doido pra shang chi sair no streaming pra eu assistir mais umas mil vezes</t>
+  </si>
+  <si>
+    <t>queria ir assistir shang chi de novo pq eu amei demais esse filme</t>
+  </si>
+  <si>
+    <t>sonhei que eu batia em alguém (de verdade) porque a pessoa disse que não gostou de shang chi</t>
+  </si>
+  <si>
+    <t>eu dou um beijo na pessoa que soltar t0rr3nt dr1v3 qualquer p1r4t4r14 de shang chi</t>
+  </si>
+  <si>
+    <t>querendo ir no cima assistir, shang chi, pelo oq eu tô vendo e lendo sobre esse filme, parece esta bom.
+deus uma coisa eu tenho certeza, tá melhor que viúva negra rs</t>
+  </si>
+  <si>
+    <t>shang chi é do caralho sinceramente melhor coreografia de lutas que já vi em um filme da marvel</t>
+  </si>
+  <si>
+    <t>shang chi ainda não ta na minha tv que depressãoooooooo</t>
+  </si>
+  <si>
+    <t>amanhã eu vou finalmente assistir shang chi</t>
+  </si>
+  <si>
+    <t>@psicopomp queria estar no hype pra shang chi mas acho que preciso ver o doutor estranho antes e eu não aguentei aquele tanto de cor pulando na minha cara</t>
+  </si>
+  <si>
+    <t>q lindo eu peguei spoiler da cena pós crédito de shang chi eu odeio vcs</t>
+  </si>
+  <si>
+    <t>ontem estava comentando com meu pai sobre o filme do shang chi, ele estava com essa expressão tentando fingir que não viu pra eu não ficar chateada kkkkkkk https://t.co/uznqvcooip</t>
+  </si>
+  <si>
+    <t>nmrl eu imploro alguém vai assistir shang chi cmgo ptmd</t>
+  </si>
+  <si>
+    <t>eu so quero um dinheiro p ir ver shang chi</t>
+  </si>
+  <si>
+    <t>pontos altos do dia 8 de setembro:
+• shang chi foda demais brabo apenas 
+• mulher que deixou rebeca e eu pagar meia mesmo sem documento 
+• moça da sorveteria elogiando meu vestido 
+• fazer call com o guilherme 
+• thiago sugerindo desmaio coletivo 
+• ver o feripe</t>
+  </si>
+  <si>
+    <t>eu tava tao feliz que nao tinha recebido spoiler de shang chi 😭😭</t>
+  </si>
+  <si>
+    <t>a cultura chinesa é tão lindamente mostrada em shang chi que tô até agora pensando em tudo que apareceu ali</t>
+  </si>
+  <si>
+    <t>queria ter alguém pra ir assistir shang chi 😞😞😞</t>
+  </si>
+  <si>
+    <t>shang chi ainda nao chegou no stremio isso é xenofobia!!!</t>
+  </si>
+  <si>
+    <t>quero assistir shang chi no cinema dnv</t>
+  </si>
+  <si>
+    <t>assistam shang chi, é isso 👌🏾</t>
+  </si>
+  <si>
+    <t>queria tanto ver shang chi c meu pai e minha mãe mas eles são mt chatos p ir em cinema</t>
+  </si>
+  <si>
+    <t>entrando na sessão pra assistir shang chi com os brothers https://t.co/xzyjrmaejl</t>
+  </si>
+  <si>
+    <t>o filme shang chi é muito bom velho, nem 20 minutos de filme tem e já tá rolando maior porradeiro.</t>
+  </si>
+  <si>
+    <t>vai toma no cu quem soltou spoiler de shang chi</t>
+  </si>
+  <si>
+    <t>so queria ir ver shang chi</t>
+  </si>
+  <si>
+    <t>alguém tem o drive de shang chi????</t>
+  </si>
+  <si>
+    <t>shang chi é muito bommmm, vsfd</t>
+  </si>
+  <si>
+    <t>o shang chi vai virar minha nova figura paterna na marvel já que o tony resolveu brincar de mortinho e nunca mais voltou</t>
+  </si>
+  <si>
+    <t>bora lá ver o tal do shang chi</t>
+  </si>
+  <si>
+    <t>n vou ver shang chi tão cedo já q aqui não tem cinema 🤣 me lasquei</t>
+  </si>
+  <si>
+    <t>shang chi mto mto bom, tava com muitas saudades de filmes de origem da marvel</t>
+  </si>
+  <si>
+    <t>dei play no álbum de shang chi pensando "porra, ia ser foda ter o rich brian no cd né..." e aí nada menos do que 5 músicas com the mf real chigga pqp kkkkkkkkk bom demais</t>
+  </si>
+  <si>
+    <t>shang chi é bom pra caralho
+esqueci de avisar vocês</t>
+  </si>
+  <si>
+    <t>eu ainda não vi shang chi, alguém me convida 🥺</t>
+  </si>
+  <si>
+    <t>wenwu quase ganhou um destino diferente em shang-chi, mas a ideia foi descartada
+https://t.co/9ovyz0sbdq</t>
+  </si>
+  <si>
+    <t>eu vou tentar convencer o meu pai da gente assistir shang chi 😎👍🏾👍🏾</t>
+  </si>
+  <si>
+    <t>manoo, o filmee de shang chi é muito bom, mds 
+e a kate é a melhor</t>
+  </si>
+  <si>
+    <t>oi vamos ver shang chi no cinema</t>
+  </si>
+  <si>
+    <t>shang chi vai chegar nunca na red pro?</t>
+  </si>
+  <si>
+    <t>shang chi spoiler
+.
+.
+.
+.
+o wong no filme mijei dms amo ele</t>
+  </si>
+  <si>
+    <t>@makizlesbian é o nome da irmã do shang chi 🥺</t>
+  </si>
+  <si>
+    <t>assisti shang chi hj 
+muito bom vey</t>
+  </si>
+  <si>
+    <t>shang chi ta nos cinemas em galerinha bora assistir</t>
+  </si>
+  <si>
+    <t>@bugnettenoir @itimaliasof final de shang chi ele fica igualzinho</t>
+  </si>
+  <si>
+    <t>quando shang chi tiver na disney + eu vou assistir tanto tanto tanto</t>
+  </si>
+  <si>
+    <t>não achei o filme do shang chi no drive ainda.. decepcionado em pirataria</t>
+  </si>
+  <si>
+    <t>shang chi gostoso pai do shang chi gostoso irmã do shang chi gostosa mãe do shang chi uma deusa tia do shang chi é a michelle yeoh ou seja gostosa tbm</t>
+  </si>
+  <si>
+    <t>quero assistir shang chi de novooooo</t>
+  </si>
+  <si>
+    <t>a mina me chamou pra beiçar mas eu preferir ver shang chi, to errado? não to.</t>
+  </si>
+  <si>
+    <t>ok provavelmente nao vou assistir miranha no cinema ja que tbm nao fui pra shang chi</t>
+  </si>
+  <si>
+    <t>eu assisti shang chi e assim, virou um dos meus prediletos ♡♡♡</t>
+  </si>
+  <si>
+    <t>@jaumgaba shang chi
+curti pra caralho filme de super-herói, com umas luta boa, poderzim e uns bixao 10/10
+vi no cinema mas deve ter no stremio</t>
+  </si>
+  <si>
+    <t>@aassemblebr a conversa com o tom holland: 
+- parabéns, shang chi!! eu sou o peter parker☺❤
+-mas, meu nome é simu liu! 😐
+-ah, pensei que a gente tivesse usando nome inventado! eu sou o tom holland 😨🥺</t>
+  </si>
+  <si>
+    <t>cara a fase 4 da marvel servindo demaaais, o filme do shang chi já demonstra isso fortemente, cenas de lutas perfeitas, história bem desenvolvida, uma pitada de comédia pra dá uma quebra na tensão e aquelas referências com outros personagens que liga tudo</t>
+  </si>
+  <si>
+    <t>assistam shang chi sério , que filme , cadê a galera idolatrando a katy ??? porra que personagem vey kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>primeiro role ver shang chi 
+dps ir pra um shopping novo de tremzinho
+dps ir pra casa do @petermcclaine 
+e sabadao tem mais, mt foda https://t.co/pn0jy7pyer</t>
+  </si>
+  <si>
+    <t>eu só queria ir assistir shang chi 😩</t>
+  </si>
+  <si>
+    <t>amanhã vou ir no cinema ver shang chi nunca fui triste</t>
+  </si>
+  <si>
+    <t>@carlagaldino_ saudades, amg 🥺❤️
+agora eu quero assistir shang chi contigo hehehe https://t.co/gjigojq92t</t>
+  </si>
+  <si>
+    <t>link do shang chi, ninguém?</t>
+  </si>
+  <si>
+    <t>acho q nao vai dar pra eu ver shang chi af</t>
+  </si>
+  <si>
+    <t>indo assistir shang chi com o meu pai, amo que amo meus amores</t>
+  </si>
+  <si>
+    <t>só não vou ver shang chi pq eu não sei se quando eu vacinar a segunda dose ainda vai estar em cartaz</t>
+  </si>
+  <si>
+    <t>a ost de shang chi ta tao boa vei</t>
+  </si>
+  <si>
+    <t>ninguem me respondeu se ja viram shang chi</t>
+  </si>
+  <si>
+    <t>cara, sério, assisti ontem shang chi e puta que pariu</t>
+  </si>
+  <si>
+    <t>q ódio, era pra eu ter assistido shang chi ontem mas o cinema do grão-pará tava em manutenção sem previsão de retorno</t>
+  </si>
+  <si>
+    <t>tentando achar alguém para ir assistir shang chi cmg</t>
+  </si>
+  <si>
+    <t>trevor + morris = bff 💙
+viva a experiência de #shangchi e a lenda dos dez anéis da marvel studios, hoje exclusivo nos cinemas. https://t.co/wcxinytdsh https://t.co/ubvehvsksf</t>
+  </si>
+  <si>
+    <t>simu liu estou com sdds qnd voltar pro cinema fazendo shang chi? responda!
+com amor, lara</t>
+  </si>
+  <si>
+    <t>@xcapimbr eu vi o shang chi bem meh o filme se eu tivesse visto a live seria melhor</t>
+  </si>
+  <si>
+    <t>hj vou assistir shang chi de novo pq amanhã tem lucifer</t>
+  </si>
+  <si>
+    <t>@batatinhageek shang chi e homem aranha longe de casa dominando kk aqui vemos como a crítica cinematográfica é uma merda. (não falo só da rotten)</t>
+  </si>
+  <si>
+    <t>é td perfeito. foi um grande retorno pro cinema. a trilha sonora ta muito boaaaa, uma vibe poderosa tipo pantera negra, mas quando começou aquela última música nos créditos aí eu ri e chorei ao mesmo tempo hahahaha enfim assistam shang chi e a lenda dos dez anéis</t>
+  </si>
+  <si>
+    <t>os pais do shang chi conseguiram ser o melhor casal da marvel???</t>
+  </si>
+  <si>
+    <t>talvez eu esteja um pouco obcecado por shang chi https://t.co/os1av2apam</t>
+  </si>
+  <si>
+    <t>minha minha irmã que viu um pôster de shang chi e falou "nossa sempre quis assistir mulan" kkkkkkkkkkk eu tô passando mal https://t.co/l1zygbx7hd</t>
+  </si>
+  <si>
+    <t>só vai ter shang chi em hd quando ele for pro disney+ ah vai se foder</t>
+  </si>
+  <si>
+    <t>até agr não superei shang chi</t>
+  </si>
+  <si>
+    <t>kung fu | atriz celebra retorno para 2ª temporada com “chute de shang-chi” https://t.co/myuswnd38s</t>
+  </si>
+  <si>
+    <t>desde segunda feira que não consigo tirar a música tema final do filme do shang chi da cabeça, ritmo gostosinho e letra bonitinha. já ouvi umas dez vezes hj no trabalho.</t>
+  </si>
+  <si>
+    <t>aaaaaaaa eu quero ver shang chi</t>
+  </si>
+  <si>
+    <t>to no cinema pra ver shang chi pela segunda vez, a surra em todos</t>
+  </si>
+  <si>
+    <t>af queria ir ver shang chi de novo</t>
+  </si>
+  <si>
+    <t>@ei_nerd dando spoiler em titulo de vídeo, ainda n vi shang chi e ja tomei spoiler 😭</t>
+  </si>
+  <si>
+    <t>queria ir assistir shang chi mas ninguém quer ir comigo 😭</t>
+  </si>
+  <si>
+    <t>@carolinelins pensa pelo lado bom, antes do sucesso do ator simu liu em shang chi ele fez umas fotos pra um banco de imagens que estão sendo usadas até hoje, vai que acontece o mesmo com você 😂</t>
+  </si>
+  <si>
+    <t>tem um cara em shang chi que eh igualzinho o drake kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>busco dinheirinho pra ir assistir shang chi</t>
+  </si>
+  <si>
+    <t>assisti shang chi ontem pensei que não ia gostar mas eu ameeeeeeeeei</t>
+  </si>
+  <si>
+    <t>bmw botou tanto dinheiro nesse filme do shang chi que fizeram eles entrarem com uma ix3 no reino mágico</t>
+  </si>
+  <si>
+    <t>'shang-chi e a lenda dos dez anéis': trevor slattery ganha destaque em novo pôster da adaptação; confira! - https://t.co/2m4eycbvoc https://t.co/ggtrfweznh</t>
+  </si>
+  <si>
+    <t>@kempiroto cê sabe se shang chi já saiu no t*rrent??? o site que eu uso ainda n tem</t>
+  </si>
+  <si>
+    <t>algum site ou app de filme bom pra ver shang chi?</t>
+  </si>
+  <si>
+    <t>shang chi é meio elfico</t>
+  </si>
+  <si>
+    <t>me julguem se quiser mas 
+só shang chi https://t.co/rjlgeaq4en</t>
+  </si>
+  <si>
+    <t>trevor + morris = bff 💙
+viva a experiência de #shangchi e a lenda dos dez anéis da marvel studios, hoje exclusivo nos cinemas. https://t.co/kzcjklqpft https://t.co/s8pc1iobw1</t>
+  </si>
+  <si>
+    <t>valeu a pena pagar o ingresso da jenifer pra ela assistir shang chi no cinema pq ela amou o filme https://t.co/0ky5ivpbul</t>
+  </si>
+  <si>
+    <t>@wilianleaoo certo que sim meu guri e shang chi? achou um torrent de qualidade?</t>
+  </si>
+  <si>
+    <t>amanhã tem shang chi https://t.co/sdxciru0zo</t>
+  </si>
+  <si>
+    <t>to mt triste cmg mesma pq vi um pôster do shang chi hj e não tive coragem de tirar foto com ele *sighs*</t>
+  </si>
+  <si>
+    <t>preciso ir ver shang chi</t>
+  </si>
+  <si>
+    <t>ontem vi shang chi. meu deus, que filme maravilhoso! o começo, meio e fim totalmente independente, sem precisar depender de outros heróis, uma história linda, as cenas muito poderosas...</t>
+  </si>
+  <si>
+    <t>sabia que shang chi não iria decepcionar</t>
+  </si>
+  <si>
+    <t>tomei spoiler de shang chi q inferno</t>
+  </si>
+  <si>
+    <t>muito bom viciar em trilha sonora de filme antes de assistir essa do shang chi ta impecável</t>
+  </si>
+  <si>
+    <t>a trilha sonora de shang chi é perfeita, aliás todo o filme… eu amei</t>
+  </si>
+  <si>
+    <t>gostoso da marvel conhecido também como shang chi</t>
+  </si>
+  <si>
+    <t>só queria assistir shang chi😫😫😫😫😫😫</t>
+  </si>
+  <si>
+    <t>@gabrielnerdland não vai falar nada de shang chi? filme foi foda pra caralho</t>
+  </si>
+  <si>
+    <t>vou assistir shang chi pelo conteúdo!! 
+o conteúdo: https://t.co/61fxvpghwr</t>
+  </si>
+  <si>
+    <t>fui ver shang chi sabendo muito pouco e amei o filme</t>
+  </si>
+  <si>
+    <t>@sunj4ck **shang chi eu ainda errei https://t.co/f2hc8emadf</t>
+  </si>
+  <si>
+    <t>shang chi perfeito conte comigo pra tudo</t>
+  </si>
+  <si>
+    <t>o 3o ato de shang chi é uma das melhores coisas q já vi num cinema</t>
+  </si>
+  <si>
+    <t>a trilha sonora de shang chi tava muito boa</t>
+  </si>
+  <si>
+    <t>vcs assistiram shang chi?</t>
+  </si>
+  <si>
+    <t>saiu shang chi no cinema da minha cidade hoje e eu não tenho um reaaaaal</t>
+  </si>
+  <si>
+    <t>acabei de ver shang chi, meu deus que filme fodaaaaa</t>
+  </si>
+  <si>
+    <t>qria ir no cinema ver after e shang chi😭</t>
+  </si>
+  <si>
+    <t>amanhã tem shang chi!</t>
+  </si>
+  <si>
+    <t>@edddbm o bom do shang chi é que a falta de hype generalizado tá blindando contra spoilers
+eu acho impossível sobreviver na tl sem spoiler desses aí (007 foda-se não ligo)</t>
+  </si>
+  <si>
+    <t>shang-chi | atriz diz que deu um soco em simu liu nas filmagens https://t.co/uziglmd8vv</t>
+  </si>
+  <si>
+    <t>vou falar, a marvel podia sim adiantar homem aranha, mas com os bons resultados de shang chi, vai se manter irredutível demais.</t>
+  </si>
+  <si>
+    <t>shang chi é muito foda, assistam</t>
+  </si>
+  <si>
+    <t>já pode spoilers de shang chi?</t>
+  </si>
+  <si>
+    <t>alguém pilha ir ver shang chi ?? 
+sério faz mt tempo que n vou no cinema</t>
+  </si>
+  <si>
+    <t>queria tanto ver shang chi</t>
+  </si>
+  <si>
+    <t>vendo os videos da sandra oh super feliz com o lançamento de shang chi</t>
+  </si>
+  <si>
+    <t>hmm sábado vou ver shang chi que delicia</t>
+  </si>
+  <si>
+    <t>eu tenho drive de shang chi imagem de cinema</t>
+  </si>
+  <si>
+    <t>eu já sabia disso ai em shang chi porque um fdp postou lá no ddc como se fosse nada
+mas agora já tem imagens
+amores</t>
+  </si>
+  <si>
+    <t>bom dia hoje vou ver o shang chi um ano e meio sem ir ao cinema nem acredito 😭😭😭</t>
+  </si>
+  <si>
+    <t>preciso tomar vergonha na cara e assistir shang chi logo slk</t>
+  </si>
+  <si>
+    <t>ngm vai cmg ver shang chi mes q vem ne blz os de vdd eu sei</t>
+  </si>
+  <si>
+    <t>// eu fazendo pose do shang chi pra rabiscar algo kkkkkk https://t.co/gnk8dpb71p</t>
+  </si>
+  <si>
+    <t>vou assistir shang chi com @natsfavgrl  só pela pipoca e doce pq n gosto de marvel, mas tudo pela pipoca de cinema</t>
+  </si>
+  <si>
+    <t>shang chi é tão lindo visualmente caras… as lutas, as criaturas. tbm amei a relação das crianças com a mãe, as cenas eram tão lindas 🥺. a história de origem como um todo não achei tão interessante quanto eu esperava. poderia ter sido bem melhor construída</t>
+  </si>
+  <si>
+    <t>shang chi = filmasso do caralho</t>
+  </si>
+  <si>
+    <t>recebi um spoiler gratuito de shang chi bacana</t>
+  </si>
+  <si>
+    <t>acho que shang chi vai ser o primeiro filme da marvel que eu vou assistir sem nenhum spoiler</t>
+  </si>
+  <si>
+    <t>@thandyung e vai ter. estou fechando o de shang chi e tá lindo. eu amo ver a cidade nos filmes.</t>
+  </si>
+  <si>
+    <t>uma nova lenda da marvel surgirá. 💥
+viva a experiência de #shangchi e a lenda dos dez anéis da marvel studios, hoje exclusivo nos cinemas. https://t.co/wcxinytdsh https://t.co/spivaysgug</t>
+  </si>
+  <si>
+    <t>tenho mesmo de ir ver o shang chi</t>
+  </si>
+  <si>
+    <t>top 10
+1-shang-chi e a lenda dos dez anéis
+2-after: depois do desencontro
+3-boss baby: negócios de família
+4-free guy
+5-patrulha pata: o filme
+6-esquadrão suicida, o
+7-candyman
+8-d'artacão e os três moscãoteiros: o filme
+9-era uma vez
+10-velocidade furiosa 9
+#top10movies</t>
+  </si>
+  <si>
+    <t>segundo o @hiddlesloversbz 
+ao ser questionado se alguém da marvel o parabenizou sobre shang chi , e essa foi a resposta se simu lu : 
+"loki me escreveu um e-mail enorme de parabéns, isso é tão bom. tom e eu falamos brevemente na comic con, foi um momento marcante ouvi-lo" https://t.co/iwjnmxlu4r</t>
+  </si>
+  <si>
+    <t>shang chi é um dos melhores filmes solo da marvel sem dúvida alguma, se não o melhor</t>
+  </si>
+  <si>
+    <t>shang-chi e a lenda dos dez anéis destaca trevor e morris em novos pôsteres https://t.co/cjradbkc0c</t>
+  </si>
+  <si>
+    <t>shang chi é bom pra caralho</t>
+  </si>
+  <si>
+    <t>coisas que eu quero fazer nesse fim de semana
+- ver a maria luiza garcia
+- cantar parabens pro bob
+- ficar porre
+- ver shang chi
+- dar um selinho na caceta do klyver
+- ir no terreno da biazinha ou caju
+- comer bolo do niver do ravi</t>
+  </si>
+  <si>
+    <t>assistam shang chi, tá muito bom/ lindo demais</t>
+  </si>
+  <si>
+    <t>ja foram ver shang chi hoje??</t>
+  </si>
+  <si>
+    <t>assisti shang chi e não sei qual é a lenda afinal 🤨</t>
+  </si>
+  <si>
+    <t>rinha de kung fu   shang chi vs  kung fusão. qual o melhor???
+#shangchi #marvel #kungfu #rinha #batalha #filmes #geekveio
+https://t.co/idti1m6lc0 https://t.co/r88343jm1r</t>
+  </si>
+  <si>
+    <t>shang chi muuuuito bom mds</t>
+  </si>
+  <si>
+    <t>app de filmes grátis já colocou o do shang- chi 🥰😭😭😭</t>
+  </si>
+  <si>
+    <t>shang-chi e a lenda dos dez anéis | marvel revela pôsteres focados em trevor slattery e morris #shangchi #marvel #mcu 
+https://t.co/sbflrimlmy https://t.co/uoiqmjat0a</t>
+  </si>
+  <si>
+    <t>gente sério esse homem é perfeito tô tão feliz pelo sucesso do filme merecia muito mais assistam shang chi caralho https://t.co/sfdsvhguex</t>
+  </si>
+  <si>
+    <t>shang chi hitou tanto eu tô mto feliz</t>
+  </si>
+  <si>
+    <t>vou chorar o resto da vida por não poder assistir shang chi no cinema, a única coisa que me conforta é o fato de não ter flopado, simu liu me perdoeee</t>
+  </si>
+  <si>
+    <t>nossa que saudade do meu filme shang chi… saudades dos meus dilfs</t>
+  </si>
+  <si>
+    <t>serio q vcs esperaram 1 semana pra dar spoiler de shang chi????? vai tomar no cu https://t.co/qb2hehbjnm</t>
+  </si>
+  <si>
+    <t>shang chi o caralho agora é a hora dos redpill https://t.co/huc7fr7fmj</t>
+  </si>
+  <si>
+    <t>ontem eu assisti shang chi e não tenho o que falar sobre esse filme  .</t>
+  </si>
+  <si>
+    <t>hoje vou ver shang chi pqp</t>
+  </si>
+  <si>
+    <t>fodase amanhã vou no cinema assistir shang chi</t>
+  </si>
+  <si>
+    <t>pfv alguém vai comigo sábado assistir shang chi</t>
+  </si>
+  <si>
+    <t>ainda nn vi shang chi querem parar?</t>
+  </si>
+  <si>
+    <t>esperando sair shang chi em hd no drive https://t.co/7tcoulwjqy</t>
+  </si>
+  <si>
+    <t>o hype de shang chi vai ser maior quando o filme sair no disney plus, muita gente não pode ir no cinema assistir</t>
+  </si>
+  <si>
+    <t>pelo menos vi shang chi e o filme é perfeito</t>
+  </si>
+  <si>
+    <t>vou ver shang chi hj apenas vitórias</t>
+  </si>
+  <si>
+    <t>queria ver shang chi de novo que odio</t>
   </si>
 </sst>
 </file>
@@ -2058,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="H557" sqref="H557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,6 +5284,2006 @@
       </c>
       <c r="B301">
         <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>503</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>504</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>505</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>506</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>507</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>508</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>509</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>485</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>510</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>511</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>512</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>513</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>514</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>515</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>516</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>517</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>518</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>519</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>520</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>521</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>522</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>523</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>524</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>525</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>526</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>527</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>528</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>529</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>530</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>531</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>532</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>533</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>534</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>535</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>536</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>537</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>538</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>539</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>540</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>541</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>542</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>543</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>544</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>545</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>546</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>547</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>548</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>549</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>550</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>551</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>552</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>553</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>554</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>555</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>556</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>557</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>558</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>559</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>560</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>561</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>562</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>563</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>564</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>565</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>566</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>567</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>568</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>569</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>570</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>571</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>572</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>573</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>574</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>575</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>576</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>577</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>578</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>579</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>580</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>581</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>582</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>583</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>584</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>585</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>586</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>587</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>588</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>589</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>590</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>591</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>592</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>593</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>594</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>595</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>596</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>597</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>598</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>599</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>600</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>601</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>602</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>603</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>604</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>605</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>606</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>607</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>608</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>609</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>610</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>611</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>612</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>613</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>614</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>615</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>616</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>617</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>618</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>619</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>620</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>621</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>622</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>623</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>624</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>625</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>626</v>
+      </c>
+      <c r="B426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>298</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>627</v>
+      </c>
+      <c r="B428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>628</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>629</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>630</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>631</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>632</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>633</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>634</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>635</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>636</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>637</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>638</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>639</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>640</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>641</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>642</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>643</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>644</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>645</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>646</v>
+      </c>
+      <c r="B447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>647</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>648</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>649</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>650</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>651</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>652</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>653</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>654</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>655</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>656</v>
+      </c>
+      <c r="B457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>657</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>658</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>659</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>660</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>661</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>662</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>663</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>664</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>665</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>666</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>667</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>668</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>669</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>670</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>671</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>672</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>673</v>
+      </c>
+      <c r="B474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>674</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>675</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>676</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>677</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>678</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>679</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>3</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>680</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>681</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>682</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>683</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>684</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>685</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>686</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>687</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>688</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>689</v>
+      </c>
+      <c r="B491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>690</v>
+      </c>
+      <c r="B492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>691</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>692</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>693</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>694</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>695</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>696</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>697</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>698</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>699</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>700</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>701</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>702</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>703</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>704</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>705</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>706</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>707</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>708</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>709</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>710</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>711</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>712</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>713</v>
+      </c>
+      <c r="B515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>714</v>
+      </c>
+      <c r="B516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>715</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>716</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>717</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>718</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>719</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>720</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>721</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>722</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>723</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>724</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>725</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>726</v>
+      </c>
+      <c r="B528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>727</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>728</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>729</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>730</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>731</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>363</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>732</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>733</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>734</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>735</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>736</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>737</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>738</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>739</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>740</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>741</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>742</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>743</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>744</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>745</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>746</v>
+      </c>
+      <c r="B549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>747</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>748</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +7295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView topLeftCell="A186" workbookViewId="0">
       <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>

--- a/Shang Chi.xlsx
+++ b/Shang Chi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Pojeto1_c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD4ABB-69B4-4E24-B9EA-98800D6F1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6384BD-8E1A-4ADD-9835-A12CA1D079E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8220" yWindow="4290" windowWidth="15375" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2872,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="H557" sqref="H557"/>
+    <sheetView topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A551" sqref="A551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +3131,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +3155,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3611,7 +3611,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3779,7 +3779,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3787,7 +3787,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3795,7 +3795,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,7 +3827,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3915,7 +3915,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3923,7 +3923,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4043,7 +4043,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4211,7 +4211,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4411,7 +4411,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4611,7 +4611,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4635,7 +4635,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4667,7 +4667,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4763,7 +4763,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4779,7 +4779,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4875,7 +4875,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4891,7 +4891,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4923,7 +4923,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4979,7 +4979,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -5163,7 +5163,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
         <v>503</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5347,7 +5347,7 @@
         <v>485</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
         <v>515</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5411,7 +5411,7 @@
         <v>517</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5555,7 +5555,7 @@
         <v>535</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5595,7 +5595,7 @@
         <v>540</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5723,7 +5723,7 @@
         <v>556</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5755,7 +5755,7 @@
         <v>560</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
         <v>566</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5915,7 +5915,7 @@
         <v>580</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5939,7 +5939,7 @@
         <v>583</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -6051,7 +6051,7 @@
         <v>597</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -6075,7 +6075,7 @@
         <v>600</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>604</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -6219,7 +6219,7 @@
         <v>618</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6331,7 +6331,7 @@
         <v>631</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
         <v>632</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6347,7 +6347,7 @@
         <v>633</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6379,7 +6379,7 @@
         <v>637</v>
       </c>
       <c r="B438">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6539,7 +6539,7 @@
         <v>657</v>
       </c>
       <c r="B458">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6571,7 +6571,7 @@
         <v>661</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6683,7 +6683,7 @@
         <v>675</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6699,7 +6699,7 @@
         <v>677</v>
       </c>
       <c r="B478">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6723,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6763,7 +6763,7 @@
         <v>684</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
         <v>686</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6851,7 +6851,7 @@
         <v>695</v>
       </c>
       <c r="B497">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6859,7 +6859,7 @@
         <v>696</v>
       </c>
       <c r="B498">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6915,7 +6915,7 @@
         <v>703</v>
       </c>
       <c r="B505">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
         <v>705</v>
       </c>
       <c r="B507">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6955,7 +6955,7 @@
         <v>708</v>
       </c>
       <c r="B510">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6987,7 +6987,7 @@
         <v>712</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -7019,7 +7019,7 @@
         <v>716</v>
       </c>
       <c r="B518">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -7043,7 +7043,7 @@
         <v>719</v>
       </c>
       <c r="B521">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -7147,7 +7147,7 @@
         <v>363</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7219,7 +7219,7 @@
         <v>740</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7227,7 +7227,7 @@
         <v>741</v>
       </c>
       <c r="B544">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7275,7 +7275,7 @@
         <v>747</v>
       </c>
       <c r="B550">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,7 +7386,7 @@
         <v>311</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7458,7 +7458,7 @@
         <v>320</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7578,7 +7578,7 @@
         <v>335</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7586,7 +7586,7 @@
         <v>336</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>348</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7730,7 +7730,7 @@
         <v>354</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7746,7 +7746,7 @@
         <v>356</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7802,7 +7802,7 @@
         <v>363</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -7810,7 +7810,7 @@
         <v>364</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -7826,7 +7826,7 @@
         <v>366</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7866,7 +7866,7 @@
         <v>371</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -7978,7 +7978,7 @@
         <v>385</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7994,7 +7994,7 @@
         <v>387</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8002,7 +8002,7 @@
         <v>388</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8010,7 +8010,7 @@
         <v>389</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8050,7 +8050,7 @@
         <v>394</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8074,7 +8074,7 @@
         <v>397</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>400</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8138,7 +8138,7 @@
         <v>405</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8162,7 +8162,7 @@
         <v>408</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8178,7 +8178,7 @@
         <v>410</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
         <v>414</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8258,7 +8258,7 @@
         <v>420</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
         <v>424</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8298,7 +8298,7 @@
         <v>425</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8330,7 +8330,7 @@
         <v>429</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8338,7 +8338,7 @@
         <v>430</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8354,7 +8354,7 @@
         <v>432</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8378,7 +8378,7 @@
         <v>435</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8402,7 +8402,7 @@
         <v>438</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -8466,7 +8466,7 @@
         <v>446</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -8490,7 +8490,7 @@
         <v>449</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -8514,7 +8514,7 @@
         <v>452</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -8562,7 +8562,7 @@
         <v>458</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -8570,7 +8570,7 @@
         <v>459</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -8610,7 +8610,7 @@
         <v>464</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -8642,7 +8642,7 @@
         <v>468</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -8698,7 +8698,7 @@
         <v>475</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -8778,7 +8778,7 @@
         <v>485</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -8874,7 +8874,7 @@
         <v>497</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -8908,6 +8908,9 @@
       <c r="B201">
         <v>0</v>
       </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>

--- a/Shang Chi.xlsx
+++ b/Shang Chi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Pojeto1_c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6384BD-8E1A-4ADD-9835-A12CA1D079E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D061C-E51F-45A4-B716-640285F60BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2524,13 +2524,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2870,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
-    <sheetView topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="A551" sqref="A551"/>
+    <sheetView topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="A553" sqref="A553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3092,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,7 +3100,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +3164,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3188,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3275,7 +3276,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3363,7 +3364,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3403,7 +3404,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3427,7 +3428,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3475,7 +3476,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3515,7 +3516,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3531,7 +3532,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,7 +3548,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3555,7 +3556,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3731,7 +3732,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +3740,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3747,7 +3748,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3763,7 +3764,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +3812,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3867,7 +3868,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3907,7 +3908,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4067,7 +4068,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4123,7 +4124,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4163,7 +4164,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4219,7 +4220,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4251,7 +4252,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4307,7 +4308,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4331,7 +4332,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4403,7 +4404,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4427,7 +4428,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,7 +4468,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4499,7 +4500,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4539,7 +4540,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4555,7 +4556,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4595,7 +4596,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4651,7 +4652,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,7 +4660,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4731,7 +4732,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4771,7 +4772,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4795,7 +4796,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4803,7 +4804,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4907,7 +4908,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,7 +4932,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4939,7 +4940,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4947,7 +4948,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4995,7 +4996,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -5091,7 +5092,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -5107,7 +5108,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -5115,7 +5116,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -5211,7 +5212,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -5259,7 +5260,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5283,7 +5284,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +5364,7 @@
         <v>511</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5403,7 +5404,7 @@
         <v>516</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5475,7 +5476,7 @@
         <v>525</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5483,7 +5484,7 @@
         <v>526</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5531,7 +5532,7 @@
         <v>532</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5635,7 +5636,7 @@
         <v>545</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5787,7 +5788,7 @@
         <v>564</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5851,7 +5852,7 @@
         <v>572</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5907,7 +5908,7 @@
         <v>579</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5931,7 +5932,7 @@
         <v>582</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5971,7 +5972,7 @@
         <v>587</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5979,7 +5980,7 @@
         <v>588</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -6011,7 +6012,7 @@
         <v>592</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,7 +6020,7 @@
         <v>593</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -6083,7 +6084,7 @@
         <v>601</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -6147,7 +6148,7 @@
         <v>609</v>
       </c>
       <c r="B409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6179,7 +6180,7 @@
         <v>613</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6187,7 +6188,7 @@
         <v>614</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6243,7 +6244,7 @@
         <v>621</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6355,7 +6356,7 @@
         <v>634</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6363,7 +6364,7 @@
         <v>635</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6427,7 +6428,7 @@
         <v>643</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6507,7 +6508,7 @@
         <v>653</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6627,7 +6628,7 @@
         <v>668</v>
       </c>
       <c r="B469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6635,7 +6636,7 @@
         <v>669</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6675,7 +6676,7 @@
         <v>674</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6835,7 +6836,7 @@
         <v>693</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +6908,7 @@
         <v>702</v>
       </c>
       <c r="B504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6923,7 +6924,7 @@
         <v>704</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6939,7 +6940,7 @@
         <v>706</v>
       </c>
       <c r="B508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6963,7 +6964,7 @@
         <v>709</v>
       </c>
       <c r="B511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6971,7 +6972,7 @@
         <v>710</v>
       </c>
       <c r="B512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -7027,7 +7028,7 @@
         <v>717</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -7091,7 +7092,7 @@
         <v>725</v>
       </c>
       <c r="B527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -7139,7 +7140,7 @@
         <v>731</v>
       </c>
       <c r="B533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7187,7 +7188,7 @@
         <v>736</v>
       </c>
       <c r="B539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7235,7 +7236,7 @@
         <v>742</v>
       </c>
       <c r="B545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7251,7 +7252,7 @@
         <v>744</v>
       </c>
       <c r="B547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7260,7 @@
         <v>745</v>
       </c>
       <c r="B548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7286,8 +7287,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7295,8 +7300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="H188" sqref="H188"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7314,7 +7319,7 @@
         <v>302</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7346,7 +7351,7 @@
         <v>306</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7362,7 +7367,7 @@
         <v>308</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7394,7 +7399,7 @@
         <v>312</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7434,7 +7439,7 @@
         <v>317</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7442,7 +7447,7 @@
         <v>318</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7466,7 +7471,7 @@
         <v>321</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7490,7 +7495,7 @@
         <v>324</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7554,7 +7559,7 @@
         <v>332</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7602,7 +7607,7 @@
         <v>338</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7626,7 +7631,7 @@
         <v>341</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7698,7 +7703,7 @@
         <v>350</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7714,7 +7719,7 @@
         <v>352</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7738,7 +7743,7 @@
         <v>355</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7850,7 +7855,7 @@
         <v>369</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -7898,7 +7903,7 @@
         <v>375</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7938,7 +7943,7 @@
         <v>380</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7954,7 +7959,7 @@
         <v>382</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7986,7 +7991,7 @@
         <v>386</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8034,7 +8039,7 @@
         <v>392</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8082,7 +8087,7 @@
         <v>398</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8122,7 +8127,7 @@
         <v>403</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8226,7 +8231,7 @@
         <v>416</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8250,7 +8255,7 @@
         <v>419</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8362,7 +8367,7 @@
         <v>433</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8386,7 +8391,7 @@
         <v>436</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8458,7 +8463,7 @@
         <v>445</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -8498,7 +8503,7 @@
         <v>450</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -8594,7 +8599,7 @@
         <v>462</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -8618,7 +8623,7 @@
         <v>465</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -8658,7 +8663,7 @@
         <v>470</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -8770,7 +8775,7 @@
         <v>484</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -8786,7 +8791,7 @@
         <v>486</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -8794,7 +8799,7 @@
         <v>487</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -8898,15 +8903,15 @@
         <v>500</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>501</v>
       </c>
-      <c r="B201">
-        <v>0</v>
+      <c r="B201" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">

--- a/Shang Chi.xlsx
+++ b/Shang Chi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Desktop\insper 2\ciencia dos dados\Projeto_1\Pojeto1_c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D061C-E51F-45A4-B716-640285F60BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD75AD2-4B8C-470C-BDFF-754A6637B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7300,8 +7300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,7 +7343,7 @@
         <v>305</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
         <v>307</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7383,7 +7383,7 @@
         <v>310</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
         <v>311</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>314</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7463,7 +7463,7 @@
         <v>320</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8831,7 +8831,7 @@
         <v>491</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -8855,7 +8855,7 @@
         <v>494</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
         <v>496</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -8879,7 +8879,7 @@
         <v>497</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
